--- a/data/134/DEUSTATIS/Producer price index for industrial products - total.xlsx
+++ b/data/134/DEUSTATIS/Producer price index for industrial products - total.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="73">
   <si>
     <t>Producer price index for industrial products (incl. rates of
 change): Germany, months</t>
@@ -226,13 +226,16 @@
     <t>2021</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:17:46</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:54:39</t>
   </si>
 </sst>
 </file>
@@ -8864,24 +8867,195 @@
       <c r="B557" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="C557" t="s" s="10">
+      <c r="C557" t="n" s="10">
+        <v>130.0</v>
+      </c>
+      <c r="D557" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E557" t="n" s="10">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="s" s="9">
         <v>69</v>
       </c>
-      <c r="D557" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="E557" t="s" s="10">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="s" s="11">
+      <c r="B558" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="C558" t="n" s="10">
+        <v>132.8</v>
+      </c>
+      <c r="D558" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="E558" t="n" s="10">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="B559" t="s" s="13">
+        <v>12</v>
+      </c>
+      <c r="C559" t="n" s="10">
+        <v>134.6</v>
+      </c>
+      <c r="D559" t="n" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="E559" t="n" s="10">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="B560" t="s" s="13">
+        <v>13</v>
+      </c>
+      <c r="C560" t="s" s="10">
         <v>70</v>
       </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="s" s="12">
+      <c r="D560" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E560" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="B561" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="C561" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="D561" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E561" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="B562" t="s" s="13">
+        <v>15</v>
+      </c>
+      <c r="C562" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="D562" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E562" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="B563" t="s" s="13">
+        <v>16</v>
+      </c>
+      <c r="C563" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="D563" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E563" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="B564" t="s" s="13">
+        <v>17</v>
+      </c>
+      <c r="C564" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="D564" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E564" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="B565" t="s" s="13">
+        <v>18</v>
+      </c>
+      <c r="C565" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="D565" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E565" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="B566" t="s" s="13">
+        <v>19</v>
+      </c>
+      <c r="C566" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="D566" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E566" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="B567" t="s" s="13">
+        <v>21</v>
+      </c>
+      <c r="C567" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="D567" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E567" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="B568" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="C568" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="D568" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E568" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="B569" t="s" s="13">
+        <v>23</v>
+      </c>
+      <c r="C569" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="D569" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="E569" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="s" s="11">
         <v>71</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="s" s="12">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -8894,7 +9068,7 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup usePrinterDefaults="false"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:17:51&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:54:44&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>